--- a/統計管制與最佳化方法概論/homework/my_homework/HW5/hw_5.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW5/hw_5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5E0983-BABD-4BD6-A9EE-256F17C793B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D0916C-652D-4B02-833A-964B40D1BA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{74F3F36E-483A-4719-8C99-747BF0D62270}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="5" xr2:uid="{74F3F36E-483A-4719-8C99-747BF0D62270}"/>
   </bookViews>
   <sheets>
     <sheet name="3-right" sheetId="6" r:id="rId1"/>
@@ -305,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,23 +319,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30305,27 +30308,27 @@
       <selection activeCell="M3" sqref="M3:M87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
-    <col min="11" max="12" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="11" max="12" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="9"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14">
       <c r="B2" s="1" t="s">
@@ -30346,14 +30349,14 @@
       <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="4">
@@ -34351,27 +34354,27 @@
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
-    <col min="11" max="12" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="11" max="12" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="9"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14">
       <c r="B2" s="1" t="s">
@@ -34392,14 +34395,14 @@
       <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="4">
@@ -38397,27 +38400,27 @@
       <selection activeCell="M3" sqref="M3:M87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
-    <col min="11" max="12" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="11" max="12" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="9"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14">
       <c r="B2" s="1" t="s">
@@ -38438,14 +38441,14 @@
       <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="4">
@@ -42443,27 +42446,27 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
-    <col min="11" max="12" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="11" max="12" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="9"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14">
       <c r="B2" s="1" t="s">
@@ -42484,14 +42487,14 @@
       <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="4">
@@ -46489,27 +46492,27 @@
       <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
-    <col min="11" max="12" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="11" max="12" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="9"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14">
       <c r="B2" s="1" t="s">
@@ -46530,14 +46533,14 @@
       <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="4">
@@ -50529,2825 +50532,2827 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EB79C1-698F-4525-889F-2DF33116FADB}">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="27">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:7" ht="26">
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>14</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>11</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>15</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>17</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="10">
         <v>16</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>9</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>7</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>4</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>14</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>16</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>16</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>8</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>11</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>16</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>20</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>11</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>6</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>7</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>23</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>24</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>7</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>4</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>8</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>16</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>13</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>10</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>7</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>12</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>10</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>16</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>14</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>4</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>7</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>21</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>13</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>12</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>6</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>11</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>18</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>10</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>18</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>8</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>7</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>18</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>17</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>19</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>6</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>13</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>21</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>22</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>25</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>9</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>17</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>20</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>17</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>17</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>5</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>13</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>16</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>21</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>13</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>5</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>7</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>17</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>14</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>18</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>9</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>5</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>17</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>15</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>12</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>7</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>12</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>18</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>16</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>12</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>1</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>14</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>8</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>12</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>17</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <v>5</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>9</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>12</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <v>16</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>11</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>7</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>10</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>15</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <v>20</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>7</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <v>6</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>6</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <v>22</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <v>8</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>5</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>15</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>20</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <v>16</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>12</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <v>5</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>6</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <v>16</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="10">
         <v>12</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>16</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <v>9</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <v>11</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <v>19</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="10">
         <v>18</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>17</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <v>10</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <v>10</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <v>17</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="10">
         <v>13</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <v>12</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="10">
         <v>8</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="10">
         <v>14</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <v>22</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="10">
         <v>18</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>8</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <v>8</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>14</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>16</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
         <v>23</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <v>11</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <v>4</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <v>10</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <v>11</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="10">
         <v>21</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <v>21</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>5</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <v>7</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <v>12</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="10">
         <v>14</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <v>9</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <v>8</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>12</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="10">
         <v>14</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="10">
         <v>9</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>12</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <v>5</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <v>7</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="10">
         <v>8</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="10">
         <v>13</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>9</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <v>5</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="10">
         <v>10</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="10">
         <v>12</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="10">
         <v>12</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>5</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>8</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <v>12</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="10">
         <v>13</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="10">
         <v>16</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <v>10</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <v>9</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="10">
         <v>9</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="10">
         <v>15</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="10">
         <v>11</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="12">
+      <c r="B34" s="10">
         <v>11</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <v>7</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="10">
         <v>13</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="10">
         <v>12</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="10">
         <v>13</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <v>13</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <v>5</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="10">
         <v>6</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="10">
         <v>14</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="10">
         <v>23</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="12">
+      <c r="B36" s="10">
         <v>21</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="10">
         <v>10</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="10">
         <v>10</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="10">
         <v>14</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="10">
         <v>17</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="12">
+      <c r="B37" s="10">
         <v>18</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="10">
         <v>9</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="10">
         <v>8</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="10">
         <v>16</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="10">
         <v>19</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="12">
+      <c r="B38" s="10">
         <v>19</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="10">
         <v>7</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="10">
         <v>9</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="10">
         <v>13</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="10">
         <v>19</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="12">
+      <c r="B39" s="10">
         <v>10</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="10">
         <v>4</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="10">
         <v>7</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="10">
         <v>12</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="10">
         <v>13</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="12">
+      <c r="B40" s="10">
         <v>10</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="10">
         <v>6</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="10">
         <v>11</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="10">
         <v>11</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="10">
         <v>10</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="12">
+      <c r="B41" s="10">
         <v>15</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="10">
         <v>5</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="10">
         <v>14</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="10">
         <v>10</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="10">
         <v>17</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="12">
+      <c r="B42" s="10">
         <v>7</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="10">
         <v>5</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="10">
         <v>12</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="10">
         <v>6</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="10">
         <v>13</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="12">
+      <c r="B43" s="10">
         <v>10</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="10">
         <v>8</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="10">
         <v>10</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="10">
         <v>7</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="10">
         <v>14</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="10">
         <v>26</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="12">
+      <c r="B44" s="10">
         <v>7</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="10">
         <v>5</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="10">
         <v>9</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="10">
         <v>18</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="10">
         <v>22</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="12">
+      <c r="B45" s="10">
         <v>11</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="10">
         <v>11</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="10">
         <v>9</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="10">
         <v>8</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="10">
         <v>16</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="12">
+      <c r="B46" s="10">
         <v>6</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="10">
         <v>6</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="10">
         <v>6</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="10">
         <v>11</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="10">
         <v>18</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="10">
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="12">
+      <c r="B47" s="10">
         <v>16</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="10">
         <v>3</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="10">
         <v>11</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="10">
         <v>11</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="10">
         <v>9</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="12">
+      <c r="B48" s="10">
         <v>12</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="10">
         <v>14</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="10">
         <v>16</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="10">
         <v>2</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="10">
         <v>17</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="12">
+      <c r="B49" s="10">
         <v>9</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="10">
         <v>9</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="10">
         <v>9</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="10">
         <v>13</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="10">
         <v>11</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="12">
+      <c r="B50" s="10">
         <v>14</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="10">
         <v>9</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="10">
         <v>12</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="10">
         <v>15</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="10">
         <v>11</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="12">
+      <c r="B51" s="10">
         <v>6</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="10">
         <v>6</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="10">
         <v>11</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="10">
         <v>10</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="10">
         <v>12</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="12">
+      <c r="B52" s="10">
         <v>14</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="10">
         <v>9</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="10">
         <v>8</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="10">
         <v>13</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="10">
         <v>18</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="12">
+      <c r="B53" s="10">
         <v>12</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="10">
         <v>5</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="10">
         <v>10</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="10">
         <v>7</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="10">
         <v>11</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="12">
+      <c r="B54" s="10">
         <v>8</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="10">
         <v>6</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="10">
         <v>9</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="10">
         <v>10</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="10">
         <v>9</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="12">
+      <c r="B55" s="10">
         <v>7</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="10">
         <v>5</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="10">
         <v>8</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="10">
         <v>8</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="10">
         <v>11</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="12">
+      <c r="B56" s="10">
         <v>7</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="10">
         <v>8</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="10">
         <v>6</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="10">
         <v>8</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="10">
         <v>12</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="12">
+      <c r="B57" s="10">
         <v>6</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="10">
         <v>6</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="10">
         <v>8</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="10">
         <v>8</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="10">
         <v>22</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="12">
+      <c r="B58" s="10">
         <v>11</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="10">
         <v>5</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="10">
         <v>7</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="10">
         <v>10</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="10">
         <v>12</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="12">
+      <c r="B59" s="10">
         <v>7</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="10">
         <v>9</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="10">
         <v>12</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="10">
         <v>5</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="10">
         <v>12</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="12">
+      <c r="B60" s="10">
         <v>14</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="10">
         <v>6</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="10">
         <v>15</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="10">
         <v>12</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="10">
         <v>20</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="12">
+      <c r="B61" s="10">
         <v>11</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="10">
         <v>10</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="10">
         <v>12</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="10">
         <v>14</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="10">
         <v>13</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="12">
+      <c r="B62" s="10">
         <v>16</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="10">
         <v>9</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="10">
         <v>8</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="10">
         <v>17</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="10">
         <v>17</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="12">
+      <c r="B63" s="10">
         <v>6</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="10">
         <v>6</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="10">
         <v>13</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="10">
         <v>7</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="10">
         <v>16</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="12">
+      <c r="B64" s="10">
         <v>8</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="10">
         <v>8</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="10">
         <v>9</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="10">
         <v>5</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="10">
         <v>20</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="12">
+      <c r="B65" s="10">
         <v>14</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="10">
         <v>5</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="10">
         <v>6</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="10">
         <v>9</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="10">
         <v>20</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="12">
+      <c r="B66" s="10">
         <v>6</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="10">
         <v>7</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="10">
         <v>6</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="10">
         <v>8</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="10">
         <v>11</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="12">
+      <c r="B67" s="10">
         <v>7</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="10">
         <v>5</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="10">
         <v>10</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="10">
         <v>5</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="10">
         <v>8</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="12">
+      <c r="B68" s="10">
         <v>9</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="10">
         <v>7</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="10">
         <v>14</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="10">
         <v>8</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="10">
         <v>14</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="12">
+      <c r="B69" s="10">
         <v>9</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="10">
         <v>7</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="10">
         <v>9</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="10">
         <v>10</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="10">
         <v>15</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="12">
+      <c r="B70" s="10">
         <v>13</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="10">
         <v>11</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="10">
         <v>6</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="10">
         <v>6</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="10">
         <v>15</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="12">
+      <c r="B71" s="10">
         <v>7</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="10">
         <v>5</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="10">
         <v>6</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="10">
         <v>11</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="10">
         <v>15</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="12">
+      <c r="B72" s="10">
         <v>16</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="10">
         <v>9</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="10">
         <v>12</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="10">
         <v>9</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="10">
         <v>14</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="12">
+      <c r="B73" s="10">
         <v>7</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="10">
         <v>10</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="10">
         <v>15</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="10">
         <v>7</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="10">
         <v>12</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="12">
+      <c r="B74" s="10">
         <v>12</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="10">
         <v>6</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="10">
         <v>5</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="10">
         <v>7</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="10">
         <v>12</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="12">
+      <c r="B75" s="10">
         <v>5</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="10">
         <v>4</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="10">
         <v>10</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="10">
         <v>5</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="10">
         <v>16</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G75" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="12">
+      <c r="B76" s="10">
         <v>6</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="10">
         <v>6</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="10">
         <v>5</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="10">
         <v>6</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="10">
         <v>12</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G76" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="12">
+      <c r="B77" s="10">
         <v>15</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="10">
         <v>7</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="10">
         <v>7</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="10">
         <v>7</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="10">
         <v>11</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G77" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="12">
+      <c r="B78" s="10">
         <v>5</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="10">
         <v>3</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="10">
         <v>10</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="10">
         <v>7</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="10">
         <v>17</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G78" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="12">
+      <c r="B79" s="10">
         <v>7</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="10">
         <v>4</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="10">
         <v>9</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="10">
         <v>11</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="10">
         <v>14</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="12">
+      <c r="B80" s="10">
         <v>8</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="10">
         <v>12</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="10">
         <v>10</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="10">
         <v>8</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="10">
         <v>10</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="12">
+      <c r="B81" s="10">
         <v>10</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="10">
         <v>2</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="10">
         <v>13</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="10">
         <v>5</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F81" s="10">
         <v>18</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="12">
+      <c r="B82" s="10">
         <v>12</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="10">
         <v>5</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="10">
         <v>11</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="10">
         <v>11</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="10">
         <v>14</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="12">
+      <c r="B83" s="10">
         <v>10</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="10">
         <v>6</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D83" s="10">
         <v>10</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E83" s="10">
         <v>7</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="10">
         <v>12</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="12">
+      <c r="B84" s="10">
         <v>10</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="10">
         <v>4</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="10">
         <v>10</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E84" s="10">
         <v>7</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="10">
         <v>15</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G84" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="12">
+      <c r="B85" s="10">
         <v>14</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="10">
         <v>6</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D85" s="10">
         <v>11</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E85" s="10">
         <v>13</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="10">
         <v>20</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G85" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="12">
+      <c r="B86" s="10">
         <v>8</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="10">
         <v>4</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="10">
         <v>8</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E86" s="10">
         <v>7</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="10">
         <v>15</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="12">
+      <c r="B87" s="10">
         <v>5</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="10">
         <v>3</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D87" s="10">
         <v>7</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E87" s="10">
         <v>7</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F87" s="10">
         <v>9</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G87" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="12">
+      <c r="B88" s="10">
         <v>8</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="10">
         <v>4</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D88" s="10">
         <v>6</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="10">
         <v>5</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="10">
         <v>16</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G88" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="12">
+      <c r="B89" s="10">
         <v>11</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="10">
         <v>4</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D89" s="10">
         <v>10</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E89" s="10">
         <v>4</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89" s="10">
         <v>11</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G89" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="12">
+      <c r="B90" s="10">
         <v>9</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="10">
         <v>8</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D90" s="10">
         <v>11</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E90" s="10">
         <v>9</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F90" s="10">
         <v>14</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G90" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="12">
+      <c r="B91" s="10">
         <v>8</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="10">
         <v>5</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="10">
         <v>8</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="10">
         <v>7</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="10">
         <v>14</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="12">
+      <c r="B92" s="10">
         <v>8</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="10">
         <v>8</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="10">
         <v>9</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E92" s="10">
         <v>10</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F92" s="10">
         <v>9</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G92" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="12">
+      <c r="B93" s="10">
         <v>14</v>
       </c>
-      <c r="C93" s="12">
+      <c r="C93" s="10">
         <v>11</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D93" s="10">
         <v>16</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E93" s="10">
         <v>6</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F93" s="10">
         <v>9</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G93" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="12">
+      <c r="B94" s="10">
         <v>10</v>
       </c>
-      <c r="C94" s="12">
+      <c r="C94" s="10">
         <v>6</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D94" s="10">
         <v>9</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="10">
         <v>14</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F94" s="10">
         <v>14</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G94" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="12">
+      <c r="B95" s="10">
         <v>12</v>
       </c>
-      <c r="C95" s="12">
+      <c r="C95" s="10">
         <v>6</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D95" s="10">
         <v>8</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E95" s="10">
         <v>6</v>
       </c>
-      <c r="F95" s="12">
+      <c r="F95" s="10">
         <v>13</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G95" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="12">
+      <c r="B96" s="10">
         <v>13</v>
       </c>
-      <c r="C96" s="12">
+      <c r="C96" s="10">
         <v>10</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D96" s="10">
         <v>14</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E96" s="10">
         <v>13</v>
       </c>
-      <c r="F96" s="12">
+      <c r="F96" s="10">
         <v>10</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G96" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="12">
+      <c r="B97" s="10">
         <v>15</v>
       </c>
-      <c r="C97" s="12">
+      <c r="C97" s="10">
         <v>7</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D97" s="10">
         <v>15</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E97" s="10">
         <v>5</v>
       </c>
-      <c r="F97" s="12">
+      <c r="F97" s="10">
         <v>15</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G97" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="12">
+      <c r="B98" s="10">
         <v>18</v>
       </c>
-      <c r="C98" s="12">
+      <c r="C98" s="10">
         <v>12</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D98" s="10">
         <v>16</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E98" s="10">
         <v>21</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F98" s="10">
         <v>19</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G98" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="12">
+      <c r="B99" s="10">
         <v>9</v>
       </c>
-      <c r="C99" s="12">
+      <c r="C99" s="10">
         <v>7</v>
       </c>
-      <c r="D99" s="12">
+      <c r="D99" s="10">
         <v>11</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E99" s="10">
         <v>13</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F99" s="10">
         <v>12</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G99" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="12">
+      <c r="B100" s="10">
         <v>10</v>
       </c>
-      <c r="C100" s="12">
+      <c r="C100" s="10">
         <v>5</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D100" s="10">
         <v>13</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E100" s="10">
         <v>13</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F100" s="10">
         <v>12</v>
       </c>
-      <c r="G100" s="12">
+      <c r="G100" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="12">
+      <c r="B101" s="10">
         <v>16</v>
       </c>
-      <c r="C101" s="12">
+      <c r="C101" s="10">
         <v>10</v>
       </c>
-      <c r="D101" s="12">
+      <c r="D101" s="10">
         <v>10</v>
       </c>
-      <c r="E101" s="12">
+      <c r="E101" s="10">
         <v>11</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F101" s="10">
         <v>15</v>
       </c>
-      <c r="G101" s="12">
+      <c r="G101" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="12">
+      <c r="B102" s="10">
         <v>18</v>
       </c>
-      <c r="C102" s="12">
+      <c r="C102" s="10">
         <v>6</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D102" s="10">
         <v>9</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E102" s="10">
         <v>22</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F102" s="10">
         <v>9</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G102" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="12">
+      <c r="B103" s="10">
         <v>16</v>
       </c>
-      <c r="C103" s="12">
+      <c r="C103" s="10">
         <v>6</v>
       </c>
-      <c r="D103" s="12">
+      <c r="D103" s="10">
         <v>13</v>
       </c>
-      <c r="E103" s="12">
+      <c r="E103" s="10">
         <v>17</v>
       </c>
-      <c r="F103" s="12">
+      <c r="F103" s="10">
         <v>15</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G103" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="12">
+      <c r="B104" s="10">
         <v>10</v>
       </c>
-      <c r="C104" s="12">
+      <c r="C104" s="10">
         <v>9</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D104" s="10">
         <v>12</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E104" s="10">
         <v>9</v>
       </c>
-      <c r="F104" s="12">
+      <c r="F104" s="10">
         <v>14</v>
       </c>
-      <c r="G104" s="12">
+      <c r="G104" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="12">
+      <c r="B105" s="10">
         <v>10</v>
       </c>
-      <c r="C105" s="12">
+      <c r="C105" s="10">
         <v>5</v>
       </c>
-      <c r="D105" s="12">
+      <c r="D105" s="10">
         <v>17</v>
       </c>
-      <c r="E105" s="12">
+      <c r="E105" s="10">
         <v>16</v>
       </c>
-      <c r="F105" s="12">
+      <c r="F105" s="10">
         <v>9</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G105" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="12">
+      <c r="B106" s="10">
         <v>13</v>
       </c>
-      <c r="C106" s="12">
+      <c r="C106" s="10">
         <v>5</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D106" s="10">
         <v>9</v>
       </c>
-      <c r="E106" s="12">
+      <c r="E106" s="10">
         <v>22</v>
       </c>
-      <c r="F106" s="12">
+      <c r="F106" s="10">
         <v>12</v>
       </c>
-      <c r="G106" s="12">
+      <c r="G106" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="12">
+      <c r="B107" s="10">
         <v>16</v>
       </c>
-      <c r="C107" s="12">
+      <c r="C107" s="10">
         <v>6</v>
       </c>
-      <c r="D107" s="12">
+      <c r="D107" s="10">
         <v>12</v>
       </c>
-      <c r="E107" s="12">
+      <c r="E107" s="10">
         <v>16</v>
       </c>
-      <c r="F107" s="12">
+      <c r="F107" s="10">
         <v>24</v>
       </c>
-      <c r="G107" s="12">
+      <c r="G107" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="12">
+      <c r="B108" s="10">
         <v>15</v>
       </c>
-      <c r="C108" s="12">
+      <c r="C108" s="10">
         <v>8</v>
       </c>
-      <c r="D108" s="12">
+      <c r="D108" s="10">
         <v>13</v>
       </c>
-      <c r="E108" s="12">
+      <c r="E108" s="10">
         <v>11</v>
       </c>
-      <c r="F108" s="12">
+      <c r="F108" s="10">
         <v>21</v>
       </c>
-      <c r="G108" s="12">
+      <c r="G108" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="12">
+      <c r="B109" s="10">
         <v>10</v>
       </c>
-      <c r="C109" s="12">
+      <c r="C109" s="10">
         <v>4</v>
       </c>
-      <c r="D109" s="12">
+      <c r="D109" s="10">
         <v>14</v>
       </c>
-      <c r="E109" s="12">
+      <c r="E109" s="10">
         <v>17</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F109" s="10">
         <v>19</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G109" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="12">
+      <c r="B110" s="10">
         <v>15</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="10">
         <v>5</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D110" s="10">
         <v>16</v>
       </c>
-      <c r="E110" s="12">
+      <c r="E110" s="10">
         <v>21</v>
       </c>
-      <c r="F110" s="12">
+      <c r="F110" s="10">
         <v>25</v>
       </c>
-      <c r="G110" s="12">
+      <c r="G110" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="12">
+      <c r="B111" s="10">
         <v>13</v>
       </c>
-      <c r="C111" s="12">
+      <c r="C111" s="10">
         <v>6</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D111" s="10">
         <v>21</v>
       </c>
-      <c r="E111" s="12">
+      <c r="E111" s="10">
         <v>24</v>
       </c>
-      <c r="F111" s="12">
+      <c r="F111" s="10">
         <v>11</v>
       </c>
-      <c r="G111" s="12">
+      <c r="G111" s="10">
         <v>26</v>
       </c>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="12">
+      <c r="B112" s="10">
         <v>14</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="10">
         <v>4</v>
       </c>
-      <c r="D112" s="12">
+      <c r="D112" s="10">
         <v>12</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E112" s="10">
         <v>18</v>
       </c>
-      <c r="F112" s="12">
+      <c r="F112" s="10">
         <v>17</v>
       </c>
-      <c r="G112" s="12">
+      <c r="G112" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="12">
+      <c r="B113" s="10">
         <v>7</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="10">
         <v>3</v>
       </c>
-      <c r="D113" s="12">
+      <c r="D113" s="10">
         <v>10</v>
       </c>
-      <c r="E113" s="12">
+      <c r="E113" s="10">
         <v>16</v>
       </c>
-      <c r="F113" s="12">
+      <c r="F113" s="10">
         <v>12</v>
       </c>
-      <c r="G113" s="12">
+      <c r="G113" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="12">
+      <c r="B114" s="10">
         <v>9</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C114" s="10">
         <v>9</v>
       </c>
-      <c r="D114" s="12">
+      <c r="D114" s="10">
         <v>17</v>
       </c>
-      <c r="E114" s="12">
+      <c r="E114" s="10">
         <v>18</v>
       </c>
-      <c r="F114" s="12">
+      <c r="F114" s="10">
         <v>15</v>
       </c>
-      <c r="G114" s="12">
+      <c r="G114" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="12">
+      <c r="B115" s="10">
         <v>12</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C115" s="10">
         <v>6</v>
       </c>
-      <c r="D115" s="12">
+      <c r="D115" s="10">
         <v>20</v>
       </c>
-      <c r="E115" s="12">
+      <c r="E115" s="10">
         <v>7</v>
       </c>
-      <c r="F115" s="12">
+      <c r="F115" s="10">
         <v>13</v>
       </c>
-      <c r="G115" s="12">
+      <c r="G115" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="12">
+      <c r="B116" s="10">
         <v>10</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C116" s="10">
         <v>6</v>
       </c>
-      <c r="D116" s="12">
+      <c r="D116" s="10">
         <v>10</v>
       </c>
-      <c r="E116" s="12">
+      <c r="E116" s="10">
         <v>15</v>
       </c>
-      <c r="F116" s="12">
+      <c r="F116" s="10">
         <v>9</v>
       </c>
-      <c r="G116" s="12">
+      <c r="G116" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="12">
+      <c r="B117" s="10">
         <v>13</v>
       </c>
-      <c r="C117" s="12">
+      <c r="C117" s="10">
         <v>1</v>
       </c>
-      <c r="D117" s="12">
+      <c r="D117" s="10">
         <v>8</v>
       </c>
-      <c r="E117" s="12">
+      <c r="E117" s="10">
         <v>14</v>
       </c>
-      <c r="F117" s="12">
+      <c r="F117" s="10">
         <v>12</v>
       </c>
-      <c r="G117" s="12">
+      <c r="G117" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="12">
+      <c r="B118" s="10">
         <v>9</v>
       </c>
-      <c r="C118" s="12">
+      <c r="C118" s="10">
         <v>4</v>
       </c>
-      <c r="D118" s="12">
+      <c r="D118" s="10">
         <v>8</v>
       </c>
-      <c r="E118" s="12">
+      <c r="E118" s="10">
         <v>15</v>
       </c>
-      <c r="F118" s="12">
+      <c r="F118" s="10">
         <v>16</v>
       </c>
-      <c r="G118" s="12">
+      <c r="G118" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="12">
+      <c r="B119" s="10">
         <v>9</v>
       </c>
-      <c r="C119" s="12">
+      <c r="C119" s="10">
         <v>7</v>
       </c>
-      <c r="D119" s="12">
+      <c r="D119" s="10">
         <v>14</v>
       </c>
-      <c r="E119" s="12">
+      <c r="E119" s="10">
         <v>13</v>
       </c>
-      <c r="F119" s="12">
+      <c r="F119" s="10">
         <v>16</v>
       </c>
-      <c r="G119" s="12">
+      <c r="G119" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="12">
+      <c r="B120" s="10">
         <v>13</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C120" s="10">
         <v>4</v>
       </c>
-      <c r="D120" s="12">
+      <c r="D120" s="10">
         <v>11</v>
       </c>
-      <c r="E120" s="12">
+      <c r="E120" s="10">
         <v>18</v>
       </c>
-      <c r="F120" s="12">
+      <c r="F120" s="10">
         <v>19</v>
       </c>
-      <c r="G120" s="12">
+      <c r="G120" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="12">
+      <c r="B121" s="10">
         <v>7</v>
       </c>
-      <c r="C121" s="12">
+      <c r="C121" s="10">
         <v>5</v>
       </c>
-      <c r="D121" s="12">
+      <c r="D121" s="10">
         <v>20</v>
       </c>
-      <c r="E121" s="12">
+      <c r="E121" s="10">
         <v>22</v>
       </c>
-      <c r="F121" s="12">
+      <c r="F121" s="10">
         <v>21</v>
       </c>
-      <c r="G121" s="12">
+      <c r="G121" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="12">
+      <c r="B122" s="10">
         <v>23</v>
       </c>
-      <c r="C122" s="12">
+      <c r="C122" s="10">
         <v>5</v>
       </c>
-      <c r="D122" s="12">
+      <c r="D122" s="10">
         <v>13</v>
       </c>
-      <c r="E122" s="12">
+      <c r="E122" s="10">
         <v>18</v>
       </c>
-      <c r="F122" s="12">
+      <c r="F122" s="10">
         <v>19</v>
       </c>
-      <c r="G122" s="12">
+      <c r="G122" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="12">
+      <c r="B123" s="10">
         <v>12</v>
       </c>
-      <c r="C123" s="12">
+      <c r="C123" s="10">
         <v>6</v>
       </c>
-      <c r="D123" s="12">
+      <c r="D123" s="10">
         <v>16</v>
       </c>
-      <c r="E123" s="12">
+      <c r="E123" s="10">
         <v>10</v>
       </c>
-      <c r="F123" s="12">
+      <c r="F123" s="10">
         <v>25</v>
       </c>
-      <c r="G123" s="12">
+      <c r="G123" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="12">
+      <c r="B124" s="10">
         <v>7</v>
       </c>
-      <c r="C124" s="12">
+      <c r="C124" s="10">
         <v>7</v>
       </c>
-      <c r="D124" s="12">
+      <c r="D124" s="10">
         <v>9</v>
       </c>
-      <c r="E124" s="12">
+      <c r="E124" s="10">
         <v>24</v>
       </c>
-      <c r="F124" s="12">
+      <c r="F124" s="10">
         <v>15</v>
       </c>
-      <c r="G124" s="12">
+      <c r="G124" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="12">
+      <c r="B125" s="10">
         <v>11</v>
       </c>
-      <c r="C125" s="12">
+      <c r="C125" s="10">
         <v>6</v>
       </c>
-      <c r="D125" s="12">
+      <c r="D125" s="10">
         <v>16</v>
       </c>
-      <c r="E125" s="12">
+      <c r="E125" s="10">
         <v>13</v>
       </c>
-      <c r="F125" s="12">
+      <c r="F125" s="10">
         <v>14</v>
       </c>
-      <c r="G125" s="12">
+      <c r="G125" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="12">
+      <c r="B126" s="10">
         <v>14</v>
       </c>
-      <c r="C126" s="12">
+      <c r="C126" s="10">
         <v>6</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D126" s="10">
         <v>14</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E126" s="10">
         <v>12</v>
       </c>
-      <c r="F126" s="12">
+      <c r="F126" s="10">
         <v>18</v>
       </c>
-      <c r="G126" s="12">
+      <c r="G126" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="12">
+      <c r="B127" s="10">
         <v>7</v>
       </c>
-      <c r="C127" s="12">
+      <c r="C127" s="10">
         <v>5</v>
       </c>
-      <c r="D127" s="12">
+      <c r="D127" s="10">
         <v>16</v>
       </c>
-      <c r="E127" s="12">
+      <c r="E127" s="10">
         <v>13</v>
       </c>
-      <c r="F127" s="12">
+      <c r="F127" s="10">
         <v>18</v>
       </c>
-      <c r="G127" s="12">
+      <c r="G127" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="12">
+      <c r="B128" s="10">
         <v>15</v>
       </c>
-      <c r="C128" s="12">
+      <c r="C128" s="10">
         <v>4</v>
       </c>
-      <c r="D128" s="12">
+      <c r="D128" s="10">
         <v>16</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E128" s="10">
         <v>19</v>
       </c>
-      <c r="F128" s="12">
+      <c r="F128" s="10">
         <v>9</v>
       </c>
-      <c r="G128" s="12">
+      <c r="G128" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
-      <c r="B129" s="12">
+    <row r="129" spans="1:8">
+      <c r="B129" s="10">
         <v>11</v>
       </c>
-      <c r="C129" s="12">
+      <c r="C129" s="10">
         <v>9</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D129" s="10">
         <v>14</v>
       </c>
-      <c r="E129" s="12">
+      <c r="E129" s="10">
         <v>9</v>
       </c>
-      <c r="F129" s="12">
+      <c r="F129" s="10">
         <v>12</v>
       </c>
-      <c r="G129" s="12">
+      <c r="G129" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
-      <c r="B130" s="12">
+    <row r="130" spans="1:8">
+      <c r="B130" s="10">
         <v>11</v>
       </c>
-      <c r="C130" s="12">
+      <c r="C130" s="10">
         <v>6</v>
       </c>
-      <c r="D130" s="12">
+      <c r="D130" s="10">
         <v>19</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E130" s="10">
         <v>15</v>
       </c>
-      <c r="F130" s="12">
+      <c r="F130" s="10">
         <v>11</v>
       </c>
-      <c r="G130" s="12">
+      <c r="G130" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
-      <c r="B131" s="12">
+    <row r="131" spans="1:8">
+      <c r="B131" s="10">
         <v>13</v>
       </c>
-      <c r="C131" s="12">
+      <c r="C131" s="10">
         <v>4</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D131" s="10">
         <v>7</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E131" s="10">
         <v>24</v>
       </c>
-      <c r="F131" s="12">
+      <c r="F131" s="10">
         <v>14</v>
       </c>
-      <c r="G131" s="12">
+      <c r="G131" s="10">
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
-      <c r="B132" s="12">
+    <row r="132" spans="1:8">
+      <c r="B132" s="10">
         <v>11</v>
       </c>
-      <c r="C132" s="12">
+      <c r="C132" s="10">
         <v>8</v>
       </c>
-      <c r="D132" s="12">
+      <c r="D132" s="10">
         <v>15</v>
       </c>
-      <c r="E132" s="12">
+      <c r="E132" s="10">
         <v>14</v>
       </c>
-      <c r="F132" s="12">
+      <c r="F132" s="10">
         <v>7</v>
       </c>
-      <c r="G132" s="12">
+      <c r="G132" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
-      <c r="B133" s="12">
+    <row r="133" spans="1:8">
+      <c r="B133" s="10">
         <v>21</v>
       </c>
-      <c r="C133" s="12">
+      <c r="C133" s="10">
         <v>5</v>
       </c>
-      <c r="D133" s="12">
+      <c r="D133" s="10">
         <v>13</v>
       </c>
-      <c r="E133" s="12">
+      <c r="E133" s="10">
         <v>12</v>
       </c>
-      <c r="F133" s="12">
+      <c r="F133" s="10">
         <v>12</v>
       </c>
-      <c r="G133" s="12">
+      <c r="G133" s="10">
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
-      <c r="B134" s="12">
+    <row r="134" spans="1:8">
+      <c r="B134" s="10">
         <v>11</v>
       </c>
-      <c r="C134" s="12">
+      <c r="C134" s="10">
         <v>10</v>
       </c>
-      <c r="D134" s="12">
+      <c r="D134" s="10">
         <v>17</v>
       </c>
-      <c r="E134" s="12">
+      <c r="E134" s="10">
         <v>18</v>
       </c>
-      <c r="F134" s="12">
+      <c r="F134" s="10">
         <v>14</v>
       </c>
-      <c r="G134" s="12">
+      <c r="G134" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
-      <c r="B135" s="12">
+    <row r="135" spans="1:8">
+      <c r="B135" s="10">
         <v>12</v>
       </c>
-      <c r="C135" s="12">
+      <c r="C135" s="10">
         <v>1</v>
       </c>
-      <c r="D135" s="12">
+      <c r="D135" s="10">
         <v>10</v>
       </c>
-      <c r="E135" s="12">
+      <c r="E135" s="10">
         <v>15</v>
       </c>
-      <c r="F135" s="12">
+      <c r="F135" s="10">
         <v>11</v>
       </c>
-      <c r="G135" s="12">
+      <c r="G135" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
-      <c r="B136" s="12">
+    <row r="136" spans="1:8">
+      <c r="B136" s="10">
         <v>16</v>
       </c>
-      <c r="C136" s="12">
+      <c r="C136" s="10">
         <v>6</v>
       </c>
-      <c r="D136" s="12">
+      <c r="D136" s="10">
         <v>10</v>
       </c>
-      <c r="E136" s="12">
+      <c r="E136" s="10">
         <v>23</v>
       </c>
-      <c r="F136" s="12">
+      <c r="F136" s="10">
         <v>14</v>
       </c>
-      <c r="G136" s="12">
+      <c r="G136" s="10">
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>5</v>
       </c>
-      <c r="B137" s="13">
+      <c r="B137" s="15">
         <f>AVERAGE(B2:B136)</f>
         <v>11.666666666666666</v>
       </c>
-      <c r="C137" s="13">
+      <c r="C137" s="15">
         <f t="shared" ref="C137:G137" si="0">AVERAGE(C2:C136)</f>
         <v>6.4370370370370367</v>
       </c>
-      <c r="D137" s="13">
+      <c r="D137" s="15">
         <f t="shared" si="0"/>
         <v>10.888888888888889</v>
       </c>
-      <c r="E137" s="13">
+      <c r="E137" s="15">
         <f t="shared" si="0"/>
         <v>12.807407407407407</v>
       </c>
-      <c r="F137" s="13">
+      <c r="F137" s="15">
         <f t="shared" si="0"/>
         <v>14.762962962962963</v>
       </c>
-      <c r="G137" s="13">
+      <c r="G137" s="15">
         <f t="shared" si="0"/>
         <v>16.348148148148148</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>12</v>
       </c>
-      <c r="B138" s="13">
+      <c r="B138" s="15">
         <f>_xlfn.VAR.S(B2:B136)</f>
         <v>16.791044776119403</v>
       </c>
-      <c r="C138" s="13">
+      <c r="C138" s="15">
         <f t="shared" ref="C138:G138" si="1">_xlfn.VAR.S(C2:C136)</f>
         <v>5.4717523493642863</v>
       </c>
-      <c r="D138" s="13">
+      <c r="D138" s="15">
         <f t="shared" si="1"/>
         <v>12.442786069651746</v>
       </c>
-      <c r="E138" s="13">
+      <c r="E138" s="15">
         <f t="shared" si="1"/>
         <v>27.067108899944721</v>
       </c>
-      <c r="F138" s="13">
+      <c r="F138" s="15">
         <f t="shared" si="1"/>
         <v>15.98817025981206</v>
       </c>
-      <c r="G138" s="13">
+      <c r="G138" s="15">
         <f t="shared" si="1"/>
         <v>27.333112216694293</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>22</v>
       </c>
-      <c r="B139" s="13">
+      <c r="B139" s="15">
         <f>B138^0.5</f>
         <v>4.0976877353111476</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C139" s="15">
         <f t="shared" ref="C139:G139" si="2">C138^0.5</f>
         <v>2.3391777079487328</v>
       </c>
-      <c r="D139" s="13">
+      <c r="D139" s="15">
         <f t="shared" si="2"/>
         <v>3.5274333543883922</v>
       </c>
-      <c r="E139" s="13">
+      <c r="E139" s="15">
         <f t="shared" si="2"/>
         <v>5.2026059720052524</v>
       </c>
-      <c r="F139" s="13">
+      <c r="F139" s="15">
         <f t="shared" si="2"/>
         <v>3.9985210090497287</v>
       </c>
-      <c r="G139" s="13">
+      <c r="G139" s="15">
         <f t="shared" si="2"/>
         <v>5.2281079002536179</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139" s="14"/>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>23</v>
       </c>
@@ -53376,42 +53381,90 @@
         <v>6.1169007702763935E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="B141">
+        <f>B137/(1-B142)*B142</f>
+        <v>26.561488673139152</v>
+      </c>
+      <c r="C141">
+        <f t="shared" ref="C141:G141" si="4">C137/(1-C142)*C142</f>
+        <v>-42.925622197618381</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="4"/>
+        <v>76.303569311039809</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="4"/>
+        <v>11.503023719336449</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="4"/>
+        <v>177.88424538958591</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="4"/>
+        <v>24.32979718514197</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="B142">
+        <f>B137/B138</f>
+        <v>0.69481481481481477</v>
+      </c>
+      <c r="C142">
+        <f t="shared" ref="C142:G142" si="5">C137/C138</f>
+        <v>1.1764123494706222</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="5"/>
+        <v>0.87511662001865897</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="5"/>
+        <v>0.47317234562253391</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="5"/>
+        <v>0.9233678853215127</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="5"/>
+        <v>0.59810781950264558</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>25</v>
       </c>
-      <c r="B143" s="14">
+      <c r="B143" s="11">
         <f>B137</f>
         <v>11.666666666666666</v>
       </c>
-      <c r="C143" s="14">
-        <f t="shared" ref="C143:G143" si="4">C137</f>
+      <c r="C143" s="11">
+        <f t="shared" ref="C143:G143" si="6">C137</f>
         <v>6.4370370370370367</v>
       </c>
-      <c r="D143" s="14">
-        <f t="shared" si="4"/>
+      <c r="D143" s="11">
+        <f t="shared" si="6"/>
         <v>10.888888888888889</v>
       </c>
-      <c r="E143" s="14">
-        <f t="shared" si="4"/>
+      <c r="E143" s="11">
+        <f t="shared" si="6"/>
         <v>12.807407407407407</v>
       </c>
-      <c r="F143" s="14">
-        <f t="shared" si="4"/>
+      <c r="F143" s="11">
+        <f t="shared" si="6"/>
         <v>14.762962962962963</v>
       </c>
-      <c r="G143" s="14">
-        <f t="shared" si="4"/>
+      <c r="G143" s="11">
+        <f t="shared" si="6"/>
         <v>16.348148148148148</v>
       </c>
     </row>
